--- a/破堤点格子番号.xlsx
+++ b/破堤点格子番号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Flood\Kinugawa\02_Deep_Learning\氾濫流量ハイドロ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Flood\Kinugawa\02_Deep_Learning\kinugawa-flood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74090D-5C30-418F-8576-E869F21424D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FE88E6-FF6D-4B56-BEA9-C10BEC7662F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="945" windowWidth="15915" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="150" windowWidth="19635" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="破堤点毎格子情報_鬼怒川" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="129">
   <si>
     <t>破堤点</t>
   </si>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>BP013</t>
+  </si>
+  <si>
+    <t>Ki4</t>
+  </si>
+  <si>
+    <t>Ki1</t>
+  </si>
+  <si>
+    <t>Ki5</t>
+  </si>
+  <si>
+    <t>Ki3</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1458,7 +1470,7 @@
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:11" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,15 +1509,33 @@
       <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2">
+        <v>356</v>
+      </c>
+      <c r="D2" s="2">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>335</v>
+      </c>
+      <c r="F2" s="1">
+        <v>336</v>
+      </c>
+      <c r="G2" s="1">
+        <v>337</v>
+      </c>
+      <c r="H2" s="1">
+        <v>338</v>
+      </c>
+      <c r="I2" s="1">
+        <v>339</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1514,15 +1544,33 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2">
+        <v>281</v>
+      </c>
+      <c r="G3" s="2">
+        <v>282</v>
+      </c>
+      <c r="H3" s="2">
+        <v>283</v>
+      </c>
+      <c r="I3" s="2">
+        <v>284</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1566,15 +1614,33 @@
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>356</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1">
+        <v>286</v>
+      </c>
+      <c r="F5" s="1">
+        <v>287</v>
+      </c>
+      <c r="G5" s="1">
+        <v>288</v>
+      </c>
+      <c r="H5" s="1">
+        <v>289</v>
+      </c>
+      <c r="I5" s="1">
+        <v>290</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1583,15 +1649,33 @@
       <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1">
+        <v>356</v>
+      </c>
+      <c r="D6" s="1">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1">
+        <v>286</v>
+      </c>
+      <c r="F6" s="1">
+        <v>287</v>
+      </c>
+      <c r="G6" s="1">
+        <v>288</v>
+      </c>
+      <c r="H6" s="1">
+        <v>289</v>
+      </c>
+      <c r="I6" s="1">
+        <v>290</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1600,15 +1684,33 @@
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1">
+        <v>356</v>
+      </c>
+      <c r="D7" s="1">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>282</v>
+      </c>
+      <c r="F7" s="1">
+        <v>283</v>
+      </c>
+      <c r="G7" s="1">
+        <v>284</v>
+      </c>
+      <c r="H7" s="1">
+        <v>285</v>
+      </c>
+      <c r="I7" s="1">
+        <v>286</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1617,15 +1719,33 @@
       <c r="A8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1">
+        <v>356</v>
+      </c>
+      <c r="D8" s="1">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>277</v>
+      </c>
+      <c r="F8" s="1">
+        <v>278</v>
+      </c>
+      <c r="G8" s="1">
+        <v>279</v>
+      </c>
+      <c r="H8" s="1">
+        <v>280</v>
+      </c>
+      <c r="I8" s="1">
+        <v>281</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1634,15 +1754,33 @@
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1">
+        <v>356</v>
+      </c>
+      <c r="D9" s="1">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1">
+        <v>266</v>
+      </c>
+      <c r="F9" s="1">
+        <v>267</v>
+      </c>
+      <c r="G9" s="1">
+        <v>268</v>
+      </c>
+      <c r="H9" s="1">
+        <v>269</v>
+      </c>
+      <c r="I9" s="1">
+        <v>270</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
@@ -2526,15 +2664,33 @@
       <c r="A35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="1">
+        <v>510</v>
+      </c>
+      <c r="D35" s="1">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1">
+        <v>88</v>
+      </c>
+      <c r="G35" s="1">
+        <v>89</v>
+      </c>
+      <c r="H35" s="1">
+        <v>90</v>
+      </c>
+      <c r="I35" s="1">
+        <v>91</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2578,15 +2734,33 @@
       <c r="A37" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1">
+        <v>510</v>
+      </c>
+      <c r="D37" s="1">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1">
+        <v>67</v>
+      </c>
+      <c r="G37" s="1">
+        <v>68</v>
+      </c>
+      <c r="H37" s="1">
+        <v>69</v>
+      </c>
+      <c r="I37" s="1">
+        <v>70</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="3" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2839,9 @@
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2682,7 +2858,9 @@
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2699,7 +2877,9 @@
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2716,7 +2896,9 @@
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2733,15 +2915,33 @@
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5">
+        <v>280</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44</v>
+      </c>
+      <c r="E44" s="1">
+        <v>216</v>
+      </c>
+      <c r="F44" s="1">
+        <v>217</v>
+      </c>
+      <c r="G44" s="1">
+        <v>218</v>
+      </c>
+      <c r="H44" s="1">
+        <v>219</v>
+      </c>
+      <c r="I44" s="1">
+        <v>220</v>
+      </c>
+      <c r="J44" s="5">
+        <v>44</v>
+      </c>
       <c r="K44" s="3" t="s">
         <v>29</v>
       </c>
@@ -2855,15 +3055,33 @@
       <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1">
+        <v>510</v>
+      </c>
+      <c r="D48" s="1">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1">
+        <v>386</v>
+      </c>
+      <c r="F48" s="1">
+        <v>387</v>
+      </c>
+      <c r="G48" s="1">
+        <v>388</v>
+      </c>
+      <c r="H48" s="1">
+        <v>389</v>
+      </c>
+      <c r="I48" s="1">
+        <v>390</v>
+      </c>
+      <c r="J48" s="1">
+        <v>53</v>
+      </c>
       <c r="K48" s="3" t="s">
         <v>29</v>
       </c>
@@ -3012,15 +3230,33 @@
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="1">
+        <v>510</v>
+      </c>
+      <c r="D53" s="1">
+        <v>53</v>
+      </c>
+      <c r="E53" s="1">
+        <v>273</v>
+      </c>
+      <c r="F53" s="1">
+        <v>274</v>
+      </c>
+      <c r="G53" s="1">
+        <v>275</v>
+      </c>
+      <c r="H53" s="1">
+        <v>276</v>
+      </c>
+      <c r="I53" s="1">
+        <v>277</v>
+      </c>
+      <c r="J53" s="1">
+        <v>53</v>
+      </c>
       <c r="K53" s="3" t="s">
         <v>29</v>
       </c>
@@ -3064,15 +3300,33 @@
       <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="1">
+        <v>510</v>
+      </c>
+      <c r="D55" s="1">
+        <v>53</v>
+      </c>
+      <c r="E55" s="1">
+        <v>260</v>
+      </c>
+      <c r="F55" s="1">
+        <v>261</v>
+      </c>
+      <c r="G55" s="1">
+        <v>262</v>
+      </c>
+      <c r="H55" s="1">
+        <v>263</v>
+      </c>
+      <c r="I55" s="1">
+        <v>264</v>
+      </c>
+      <c r="J55" s="1">
+        <v>53</v>
+      </c>
       <c r="K55" s="3" t="s">
         <v>29</v>
       </c>
@@ -3116,15 +3370,33 @@
       <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1">
+        <v>510</v>
+      </c>
+      <c r="D57" s="1">
+        <v>53</v>
+      </c>
+      <c r="E57" s="1">
+        <v>227</v>
+      </c>
+      <c r="F57" s="1">
+        <v>228</v>
+      </c>
+      <c r="G57" s="1">
+        <v>229</v>
+      </c>
+      <c r="H57" s="1">
+        <v>230</v>
+      </c>
+      <c r="I57" s="1">
+        <v>231</v>
+      </c>
+      <c r="J57" s="1">
+        <v>53</v>
+      </c>
       <c r="K57" s="3" t="s">
         <v>29</v>
       </c>
@@ -3133,15 +3405,33 @@
       <c r="A58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1">
+        <v>510</v>
+      </c>
+      <c r="D58" s="1">
+        <v>53</v>
+      </c>
+      <c r="E58" s="1">
+        <v>213</v>
+      </c>
+      <c r="F58" s="1">
+        <v>214</v>
+      </c>
+      <c r="G58" s="1">
+        <v>215</v>
+      </c>
+      <c r="H58" s="1">
+        <v>216</v>
+      </c>
+      <c r="I58" s="1">
+        <v>217</v>
+      </c>
+      <c r="J58" s="1">
+        <v>53</v>
+      </c>
       <c r="K58" s="3" t="s">
         <v>29</v>
       </c>
@@ -3185,15 +3475,33 @@
       <c r="A60" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="1">
+        <v>510</v>
+      </c>
+      <c r="D60" s="1">
+        <v>53</v>
+      </c>
+      <c r="E60" s="1">
+        <v>189</v>
+      </c>
+      <c r="F60" s="1">
+        <v>190</v>
+      </c>
+      <c r="G60" s="1">
+        <v>191</v>
+      </c>
+      <c r="H60" s="1">
+        <v>192</v>
+      </c>
+      <c r="I60" s="1">
+        <v>193</v>
+      </c>
+      <c r="J60" s="1">
+        <v>53</v>
+      </c>
       <c r="K60" s="3" t="s">
         <v>29</v>
       </c>
@@ -3237,15 +3545,33 @@
       <c r="A62" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1">
+        <v>510</v>
+      </c>
+      <c r="D62" s="1">
+        <v>53</v>
+      </c>
+      <c r="E62" s="1">
+        <v>159</v>
+      </c>
+      <c r="F62" s="1">
+        <v>160</v>
+      </c>
+      <c r="G62" s="1">
+        <v>161</v>
+      </c>
+      <c r="H62" s="1">
+        <v>162</v>
+      </c>
+      <c r="I62" s="1">
+        <v>163</v>
+      </c>
+      <c r="J62" s="1">
+        <v>53</v>
+      </c>
       <c r="K62" s="3" t="s">
         <v>29</v>
       </c>
@@ -3254,15 +3580,33 @@
       <c r="A63" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1">
+        <v>510</v>
+      </c>
+      <c r="D63" s="1">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1">
+        <v>134</v>
+      </c>
+      <c r="F63" s="1">
+        <v>135</v>
+      </c>
+      <c r="G63" s="1">
+        <v>136</v>
+      </c>
+      <c r="H63" s="1">
+        <v>137</v>
+      </c>
+      <c r="I63" s="1">
+        <v>138</v>
+      </c>
+      <c r="J63" s="1">
+        <v>53</v>
+      </c>
       <c r="K63" s="3" t="s">
         <v>29</v>
       </c>
@@ -3306,15 +3650,33 @@
       <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1">
+        <v>510</v>
+      </c>
+      <c r="D65" s="1">
+        <v>53</v>
+      </c>
+      <c r="E65" s="1">
+        <v>107</v>
+      </c>
+      <c r="F65" s="1">
+        <v>108</v>
+      </c>
+      <c r="G65" s="1">
+        <v>109</v>
+      </c>
+      <c r="H65" s="1">
+        <v>110</v>
+      </c>
+      <c r="I65" s="1">
+        <v>111</v>
+      </c>
+      <c r="J65" s="1">
+        <v>53</v>
+      </c>
       <c r="K65" s="3" t="s">
         <v>29</v>
       </c>
@@ -3428,7 +3790,9 @@
       <c r="A69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3445,15 +3809,33 @@
       <c r="A70" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="7">
+        <v>512</v>
+      </c>
+      <c r="D70" s="7">
+        <v>80</v>
+      </c>
+      <c r="E70" s="7">
+        <v>452</v>
+      </c>
+      <c r="F70" s="7">
+        <v>453</v>
+      </c>
+      <c r="G70" s="7">
+        <v>454</v>
+      </c>
+      <c r="H70" s="7">
+        <v>455</v>
+      </c>
+      <c r="I70" s="7">
+        <v>456</v>
+      </c>
+      <c r="J70" s="7">
+        <v>80</v>
+      </c>
       <c r="K70" s="8" t="s">
         <v>38</v>
       </c>
@@ -3462,15 +3844,33 @@
       <c r="A71" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="7">
+        <v>512</v>
+      </c>
+      <c r="D71" s="7">
+        <v>80</v>
+      </c>
+      <c r="E71" s="7">
+        <v>445</v>
+      </c>
+      <c r="F71" s="7">
+        <v>446</v>
+      </c>
+      <c r="G71" s="7">
+        <v>447</v>
+      </c>
+      <c r="H71" s="7">
+        <v>448</v>
+      </c>
+      <c r="I71" s="7">
+        <v>449</v>
+      </c>
+      <c r="J71" s="7">
+        <v>80</v>
+      </c>
       <c r="K71" s="8" t="s">
         <v>38</v>
       </c>
@@ -3479,7 +3879,9 @@
       <c r="A72" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3496,15 +3898,33 @@
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="7">
+        <v>512</v>
+      </c>
+      <c r="D73" s="7">
+        <v>80</v>
+      </c>
+      <c r="E73" s="7">
+        <v>432</v>
+      </c>
+      <c r="F73" s="7">
+        <v>433</v>
+      </c>
+      <c r="G73" s="7">
+        <v>434</v>
+      </c>
+      <c r="H73" s="7">
+        <v>435</v>
+      </c>
+      <c r="I73" s="7">
+        <v>436</v>
+      </c>
+      <c r="J73" s="7">
+        <v>80</v>
+      </c>
       <c r="K73" s="8" t="s">
         <v>38</v>
       </c>
@@ -3513,15 +3933,33 @@
       <c r="A74" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="7">
+        <v>512</v>
+      </c>
+      <c r="D74" s="7">
+        <v>80</v>
+      </c>
+      <c r="E74" s="7">
+        <v>427</v>
+      </c>
+      <c r="F74" s="7">
+        <v>428</v>
+      </c>
+      <c r="G74" s="7">
+        <v>429</v>
+      </c>
+      <c r="H74" s="7">
+        <v>430</v>
+      </c>
+      <c r="I74" s="7">
+        <v>431</v>
+      </c>
+      <c r="J74" s="7">
+        <v>80</v>
+      </c>
       <c r="K74" s="8" t="s">
         <v>38</v>
       </c>
@@ -3530,7 +3968,9 @@
       <c r="A75" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3547,15 +3987,33 @@
       <c r="A76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="B76" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="7">
+        <v>512</v>
+      </c>
+      <c r="D76" s="7">
+        <v>80</v>
+      </c>
+      <c r="E76" s="7">
+        <v>403</v>
+      </c>
+      <c r="F76" s="7">
+        <v>404</v>
+      </c>
+      <c r="G76" s="7">
+        <v>405</v>
+      </c>
+      <c r="H76" s="7">
+        <v>406</v>
+      </c>
+      <c r="I76" s="7">
+        <v>407</v>
+      </c>
+      <c r="J76" s="7">
+        <v>80</v>
+      </c>
       <c r="K76" s="8" t="s">
         <v>38</v>
       </c>
@@ -3564,7 +4022,9 @@
       <c r="A77" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -3581,7 +4041,9 @@
       <c r="A78" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -3598,15 +4060,33 @@
       <c r="A79" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="7">
+        <v>512</v>
+      </c>
+      <c r="D79" s="7">
+        <v>80</v>
+      </c>
+      <c r="E79" s="7">
+        <v>381</v>
+      </c>
+      <c r="F79" s="7">
+        <v>382</v>
+      </c>
+      <c r="G79" s="7">
+        <v>383</v>
+      </c>
+      <c r="H79" s="7">
+        <v>384</v>
+      </c>
+      <c r="I79" s="7">
+        <v>385</v>
+      </c>
+      <c r="J79" s="7">
+        <v>80</v>
+      </c>
       <c r="K79" s="8" t="s">
         <v>38</v>
       </c>
@@ -3615,7 +4095,9 @@
       <c r="A80" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -3632,7 +4114,9 @@
       <c r="A81" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3649,15 +4133,33 @@
       <c r="A82" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="B82" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="7">
+        <v>512</v>
+      </c>
+      <c r="D82" s="7">
+        <v>80</v>
+      </c>
+      <c r="E82" s="7">
+        <v>353</v>
+      </c>
+      <c r="F82" s="7">
+        <v>354</v>
+      </c>
+      <c r="G82" s="7">
+        <v>355</v>
+      </c>
+      <c r="H82" s="7">
+        <v>356</v>
+      </c>
+      <c r="I82" s="7">
+        <v>357</v>
+      </c>
+      <c r="J82" s="7">
+        <v>80</v>
+      </c>
       <c r="K82" s="8" t="s">
         <v>38</v>
       </c>
@@ -3666,7 +4168,9 @@
       <c r="A83" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3683,7 +4187,9 @@
       <c r="A84" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -3700,15 +4206,33 @@
       <c r="A85" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="7">
+        <v>512</v>
+      </c>
+      <c r="D85" s="7">
+        <v>80</v>
+      </c>
+      <c r="E85" s="7">
+        <v>295</v>
+      </c>
+      <c r="F85" s="7">
+        <v>296</v>
+      </c>
+      <c r="G85" s="7">
+        <v>297</v>
+      </c>
+      <c r="H85" s="7">
+        <v>298</v>
+      </c>
+      <c r="I85" s="7">
+        <v>299</v>
+      </c>
+      <c r="J85" s="7">
+        <v>80</v>
+      </c>
       <c r="K85" s="8" t="s">
         <v>38</v>
       </c>
@@ -3717,7 +4241,9 @@
       <c r="A86" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -3734,7 +4260,9 @@
       <c r="A87" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -3751,15 +4279,33 @@
       <c r="A88" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="B88" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="7">
+        <v>512</v>
+      </c>
+      <c r="D88" s="7">
+        <v>80</v>
+      </c>
+      <c r="E88" s="7">
+        <v>259</v>
+      </c>
+      <c r="F88" s="7">
+        <v>260</v>
+      </c>
+      <c r="G88" s="7">
+        <v>261</v>
+      </c>
+      <c r="H88" s="7">
+        <v>262</v>
+      </c>
+      <c r="I88" s="7">
+        <v>263</v>
+      </c>
+      <c r="J88" s="7">
+        <v>80</v>
+      </c>
       <c r="K88" s="8" t="s">
         <v>38</v>
       </c>
@@ -3768,7 +4314,9 @@
       <c r="A89" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -3785,7 +4333,9 @@
       <c r="A90" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -3803,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C91" s="7">
         <v>512</v>
@@ -3837,7 +4387,9 @@
       <c r="A92" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -3854,7 +4406,9 @@
       <c r="A93" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -3871,15 +4425,33 @@
       <c r="A94" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="7">
+        <v>512</v>
+      </c>
+      <c r="D94" s="7">
+        <v>80</v>
+      </c>
+      <c r="E94" s="7">
+        <v>175</v>
+      </c>
+      <c r="F94" s="7">
+        <v>176</v>
+      </c>
+      <c r="G94" s="7">
+        <v>177</v>
+      </c>
+      <c r="H94" s="7">
+        <v>178</v>
+      </c>
+      <c r="I94" s="7">
+        <v>179</v>
+      </c>
+      <c r="J94" s="7">
+        <v>80</v>
+      </c>
       <c r="K94" s="8" t="s">
         <v>38</v>
       </c>
@@ -3888,7 +4460,9 @@
       <c r="A95" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -3905,7 +4479,9 @@
       <c r="A96" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -3922,15 +4498,33 @@
       <c r="A97" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="B97" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="7">
+        <v>512</v>
+      </c>
+      <c r="D97" s="7">
+        <v>80</v>
+      </c>
+      <c r="E97" s="7">
+        <v>148</v>
+      </c>
+      <c r="F97" s="7">
+        <v>149</v>
+      </c>
+      <c r="G97" s="7">
+        <v>150</v>
+      </c>
+      <c r="H97" s="7">
+        <v>151</v>
+      </c>
+      <c r="I97" s="7">
+        <v>152</v>
+      </c>
+      <c r="J97" s="7">
+        <v>80</v>
+      </c>
       <c r="K97" s="8" t="s">
         <v>38</v>
       </c>
@@ -3939,7 +4533,9 @@
       <c r="A98" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -3956,7 +4552,9 @@
       <c r="A99" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -3973,15 +4571,33 @@
       <c r="A100" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="7">
+        <v>512</v>
+      </c>
+      <c r="D100" s="7">
+        <v>80</v>
+      </c>
+      <c r="E100" s="7">
+        <v>110</v>
+      </c>
+      <c r="F100" s="7">
+        <v>111</v>
+      </c>
+      <c r="G100" s="7">
+        <v>112</v>
+      </c>
+      <c r="H100" s="7">
+        <v>113</v>
+      </c>
+      <c r="I100" s="7">
+        <v>114</v>
+      </c>
+      <c r="J100" s="7">
+        <v>80</v>
+      </c>
       <c r="K100" s="8" t="s">
         <v>38</v>
       </c>
@@ -3990,7 +4606,9 @@
       <c r="A101" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -4007,15 +4625,33 @@
       <c r="A102" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="7">
+        <v>512</v>
+      </c>
+      <c r="D102" s="7">
+        <v>80</v>
+      </c>
+      <c r="E102" s="7">
+        <v>74</v>
+      </c>
+      <c r="F102" s="7">
+        <v>75</v>
+      </c>
+      <c r="G102" s="7">
+        <v>76</v>
+      </c>
+      <c r="H102" s="7">
+        <v>77</v>
+      </c>
+      <c r="I102" s="7">
+        <v>78</v>
+      </c>
+      <c r="J102" s="7">
+        <v>80</v>
+      </c>
       <c r="K102" s="8" t="s">
         <v>38</v>
       </c>
@@ -4024,7 +4660,9 @@
       <c r="A103" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -4042,7 +4680,7 @@
         <v>33</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C104" s="7">
         <v>512</v>
